--- a/Doc/Target.xlsx
+++ b/Doc/Target.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Loc_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,10 @@
   </si>
   <si>
     <t>Private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameLoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,43 +417,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Target.xlsx
+++ b/Doc/Target.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>NameLoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubIndicator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,6 +462,16 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
